--- a/500all/speech_level/speeches_CHRG-114hhrg95696.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95696.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="101">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412472</t>
   </si>
   <si>
-    <t>Jeff Duncan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Duncan. A quorum being present, the subcommittee will come to order.    I would now like to recognize myself for an opening statement.    In 1776, the Second Continental Congress of the thirteen United States of America declared: We hold these truths be self-evident, that all men are created equal, and they are endowed by their Creator with certain unalienable rights, that among these are life, liberty, and the pursuit of happiness.    In 1791, the United States of America adopted the Bill of Rights, which among other things, affirmed the American citizens' freedom of speech, the press, and the right of people to peacefully assemble, the ability to speak openly without censure or fear of reprisal as a hallmark of free peoples everywhere. And the freedom of press is critical to sustaining democracy and the rule of law and enabling people to remain free from state and in some cases, nonstate control or oppression.    Journalists provide needed accountability for governments by challenging conventional thinking; reporting on different and often opposing viewpoints; and offering people information that informs their understanding of the issues. Unfortunately, in our hemisphere, a trend of conditioning and even curtailing press freedoms in several countries is deeply disturbing.    From severe government repression and outright targeting of journalists by Cuba, Venezuela, and Ecuador to organized crime, corruption, and impunity in other countries in Latin America, journalists have very difficult jobs, often risking their very lives and their loved ones to bring information and the truth to their fellow citizens.    Although the purpose of this hearing is to highlight some of the more concerning trends of threats to press freedoms in the Americas, I do want to note that there are some bright spots in the region with Canada and most of the Caribbean having relatively open media environments in comparison to other countries in the region.    In recent years, several international press rights monitoring organizations have expressed growing concerns about the deterioration of press freedoms in Latin America. Groups, like Freedom House, Reporters Without Borders, the Committee to Protect Journalists, and the Inter-American Press Association, all report on threats to freedoms of the press in the Western Hemisphere. And we are fortunate to have key experts from some of these groups represented here today to testify about their work.    I also want to commend the efforts of the Organization of American States Special Rapporteur for Freedom of Expression, who has done some important work on threats to freedom of the press through highlighting progress and problems within specific countries in the Americas through the comprehensive annual reports. These reports are excellent tools for providing transparency and accountability to countries in the region.    In addition, I also want to congratulate the Special Rapporteur for his efforts to bring to public awareness the issue of government surveillance programs that have threatened journalists' rights of privacy and freedom of expression.    According to the Reporters Without Borders' 2015 World Press Freedom Index, only three countries in the Western Hemisphere managed to score in the top 20 of 180 countries documented: Canada, Jamaica, and Costa Rica. Notoriously, Mexico and Cuba were among the worst offenders in the Western Hemisphere listed in that report.    When it comes to violence against the media, Mexico exists as one of the most dangerous countries for media, with journalists often receiving extortion and kidnapping threats from government officials, criminal groups, and other transnational gangs. In fact, Mexico accounts for more than a third of all of the killing of media workers and journalists in the hemisphere since 2009.    In addition, Cuba ranks worst in the region, according to Freedom House, and among the 10 most censored countries in the world according to the Committee to Protect Journalists. Furthermore, Cuba and Venezuela have been singled out frequently and consistently for having repressive media environments and for often targeting peaceful protesters and political dissidents.    In these countries, independent journalists and bloggers are often subject to government sanction, harassment, and detention. Just last year, we saw Venezuelan security forces opening fire on journalists during student demonstrations that ultimately turned deadly. These conditions have led to more than 400 Venezuelan journalists living in exile today.    In addition to these countries, Ecuador, Honduras, and Peru all received their worst press freedom scores in over a decade from Freedom House. A controversial 2013 communications law in Ecuador has led to chilling environment, self-censorship, and intimidation for press organizations. Honduras passed a new secrecy law and has limited critical reporting of the government. Peru has seen an increase in threats against journalists and ongoing impunity and a lack of willingness to address past crimes against journalists.    More over, Brazil has seen at least 16 journalists killed in direct response for their work since President Rousseff took office in January 2011. In Nicaragua, complete state control of the media has occurred through a monopoly, with the single exception of one single independent television channel. Other concerns about general deterioration of press freedoms in Latin America include the governmental abuse of libel and defamation laws, a general lack of support for the protection of journalists, reporters, and media workers, and in some places an outright attempt to eliminate an independent media altogether.    So, in conclusion, threats to the press freedoms and the Americas are ongoing and increasing. Abraham Lincoln once stated that ``No man is good enough to govern another man without that other's consent.''. Today, in the Western Hemisphere, there are some people who are seeking to do just that: Control populations; prevent freedom of thought and expression; and eliminate avenues for questioning; state control by silencing the voice of those who are most able to speak truth to power.    Our witnesses today are uniquely positioned to share their research and personal experiences in various countries of oppression, and I look forward to considering how the U.S. can better engage in the region to more effectively partner with other countries to promote the freedom of press.    With that, I will turn to the ranking member, Mr. Sires, for an opening statement he may have.</t>
   </si>
   <si>
     <t>412186</t>
   </si>
   <si>
-    <t>Albio Sires</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sires. Thank you, Mr. Chairman.    Good afternoon, and thank you to our witnesses for being here today. And especially Alfredo Corchado and Nicolas Perez, who traveled a long way to be here. We certainly appreciate you being here.    Freedom of expression is a keystone that holds any democracy together. Being able to speak without censorship is a right that should never be stifled. Furthermore, it is the number one mechanism to hold people in government accountable for their actions. In recent years, many organizations dedicated to freedom of speech and advancing civil societies have been trying to bring attention to the deterioration of press freedom in Latin America.    Cuba has consistently been characterized as having one of the most repressive media environments in the world, with the Castro regime controlling all aspects of the print and electronic media. Venezuela and Ecuador have made deliberate attempts to eliminate their dissenters and inhibit free speech. They have harassed and fined the media; shut down their operations; and even physically attacked journalists who are trying to expose the state-sponsored crackdown against peaceful, political dissenters.    Ecuador's 2013 law forces media organizations to print government-mandated edits, and corrections have led to the country's wide censorship. This institutionalized tactic to censor the Ecuadorian population is unacceptable. In other countries, such as Mexico and Honduras, an increase in drug-related violence and worsening security situation have created a culture of impunity, allowing the violence against journalists and press institutions to go unpunished.    Mexico has unfortunately become one of the most dangerous places on Earth for journalists, with journalists regularly targeted for reporting organized crime or corrupt government officials. Mexico accounts for more than one-third of the killings of members of the media in Latin America in 2009. In Honduras, 8 million members have already lost their lives this year. Even in Colombia, journalists are under constant threat from paramilitary groups.    As a child in Cuba, I witnessed the deterioration of democracy as the Castro regime took over the islands and systemically destroyed all aspects of freedom of speech and expression. There is strong connection between countries' Democratic values and freedoms afforded to the press. Working to preserve freedom of speech and pushing back against those who seek to quiet their dissenters should be a top priority when engaging with our neighbors in the region.    I look forward to hearing from our panelists to hear their assessment of the hemisphere's state of affairs when it comes to the freedom of speech.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>412526</t>
   </si>
   <si>
-    <t>Ron DeSantis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. DeSantis. No, thanks.</t>
   </si>
   <si>
@@ -85,9 +76,6 @@
     <t>412595</t>
   </si>
   <si>
-    <t>Robin L. Kelly</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Kelly. I want to thank the chair and ranking member and our witnesses for holding this important hearing on press freedom in Latin America.    We are truly fortunate to live in and be Representatives of a Nation that recognizes and respects free press. The basis of our Government is to be for and by the people. And in that spirit, the opinion of the people matters. In many ways, the press are guardians of the people's opinion here in America.    That is why I am concerned by reports that our neighbors in Mexico, Venezuela, Honduras, and Ecuador have experienced a deterioration of press freedom. Whether it be politically motivated or the result of criminal activity, this erosion of press freedom in these areas that are valued and respected by our Nation cannot continue.    I look forward to our thoughtful discussion here today about free speech and that threat in our hemisphere. It is critical to the progress and prosperity of our Nation. I want to thank you again.    I yield back.</t>
   </si>
   <si>
@@ -97,9 +85,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Ponce</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Ponce. Thank you very much.    Chairman Duncan, Ranking Member Sires, DeSantis, Kelly, distinguished members of the committee, it is an honor to testify before you on the state of the press freedom in Latin America. I ask that my full testimony be submitted to the record.    I will briefly summarize the work of Freedom House; the current landscape for press freedom in Latin America, which today faces a more severe and diverse set of challenges than at any point in the previous years. They rank--the intimidation, the downward trajectory in the region is terrible at this time, and we can summarize what is going on in the region with a simple word, ``impunity.''    The work of Freedom House has been extended in the whole region. Since mid-1941, Freedom House has been working for fundamental freedoms in the world and has been working the previous years in several countries in the region: Mexico, Ecuador, Venezuela, Nicaragua, Honduras. And in an annual Freedom of the Press Report, the situation in the region is more than sad. Only 43 percent of the region is free. The rest is not free or partially free.    Freedom House has been training also journalists in Mexico in digital security: 1,300 journalists trained in Mexico. We have been helping also the Mexican Government with the Federal Protection Mechanism for Journalists.    In Venezuela and in Ecuador, we have been helping several organizations that works with journalists or support journalists or train journalists.    We have assisted 120 requests for protection from at-risk journalists in Mexico, Brazil, Colombia, Honduras, Ecuador, Guatemala, Peru, and Haiti. This is a huge challenge right now in the region: Extortion, persecution, the use of the judicial system against the journalists. One of three countries in Latin America, 15 percent, are rated free only. The rest, just 2 percent of the population live in free media environment.    We see the same situation from Mexico to Argentina, each one of the countries. If we record each one of the countries, we see the situation in Mexico, in Honduras, in Guatemala. The situation is getting worse. And the problem is the allocation of resources to go against the journalists. We see lack of access to information; lack of resources for the independent journalists and the investigative journalists; persecution directly against journalists; impunity against the attacks against the journalists; lack of protection; the monopoly of the media ownership, and the use of the power of the state to buy directly or indirectly the media outlets in each one of the countries. Abuse for each one of the countries in the region.    In Argentina, since 2008, journalists and media owners have been demonized, persecuted, and threatened. And the relationship between the government and the critical press, it is really critical against all the media outlets. Total control of the use of the power of the state to buy media or to buy publicity in each one of the media and to persecute directly journalists.    Juan Pablo Suarez, editor of the online daily Ultima Hora, was charged with inciting collective violence and terrorizing the population. So it is the use of the judiciary ones and over to persecute each one of the journalists.    We can say that is the same situation in Colombia, a weak police justice system that doesn't work to protect the journalists so the journalists keep facing the same impunity and persecution.    In Cuba, the situation is getting worse. With the normalizations, the diplomatic situations have been improving in Cuba. But every Sunday, we can see the Ladies in White. Every Sunday, we see the persecution against the civil society. We see the persecution not only in Cuba. When the Cubans are trying to leave the country, they also have problems in Panama, El Salvador. They have persecution also by the regime in trying to infuse the long arm of the regime.    We see the persecution in every independent journalist in Cuba. All the organizations that try to bring information outside Cuba have been persecuted. Even bloggers have been persecuted in Cuba. Cubanet has been playing definitely a good role in Cuba, but it has been persecuted all the time.    In the case of the Ecuador, not only is it about journalists, it is about cartoonists, like Bonilla, persecuted by the government directly. The government simply persecuted also organizations for civil society like Fundamedios. Ecuador experienced the second largest decline in the world, the freedom of the press from 2008 to 2013. It is going downward in the last year; 180 cases of persecution in Ecuador, and recently, the hacking team against all the organizations in Ecuador.    Honduras is the most deadliest country for journalists.    Guatemala, 72 organizations reported 177 during this administration of--the current administration in Guatemala. The aggression against journalists, the persecution, killing against the journalists.    Mexico. Mexico has been going downward in terms of the protection of the journalists, and it is not free since 2011, according to Freedom House.    In Venezuela, 1,773 aggressions against journalists documented so far in just 10 years, from 2005 to 2015. And the government control of all the media in Venezuela and now persecution even the Web pages that operate in Venezuela. Seven journalists killed since 2005. There is no independent media in Venezuela.    It is the same situation in Mexico.    Nicaragua, government ownership of all the media in Nicaragua and the persecution of anyone who wants to simply express the right to go and ask independent election in Nicaragua, persecuted by the police, persecuted by the regime now. And we can see that this is a pattern around the region.</t>
   </si>
   <si>
@@ -112,36 +97,24 @@
     <t xml:space="preserve">    Mr. Duncan. Thank you.    Dr. Carlos Lauria, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Lauria</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lauria. Thank you, Mr. Chairman.    I would like to commend Chairman Duncan and members of the House Subcommittee on the Western Hemisphere for holding this important hearing and for providing the Committee to Protect Journalists the opportunity to testify before you. CPJ is an independent, nonprofit organization dedicated to promote freedom of press worldwide and defend the rights of journalists. It is an honor to speak to you today.    What I have experienced in more than a decade at CPJ is that while Latin American media are certainly freer and more vibrant now than during previous decades, journalists in the region continue to face serious challenges on different fronts. The regional press continues to hold governments accountable, exposing corruption and human rights abuses in the face of ongoing threats by organized crime and officials in their attempt to thwart freedom of expression.    Despite the strong tradition of independent, investigative, and critical media in many countries of the region, journalists are increasingly vulnerable to both violence and government harassment. More than 30 years of democratization in the region, transnational criminal networks have extended their sway and spread a wave of unprecedented violence across Latin America. Scores of journalists have been killed and disappeared. Media outlets have been bombed and forced into silence. The consequences are devastating: Many regional democracies have deteriorated due to political instability and weakened institutions.    Violence tied to drug trafficking has made Mexico one of the dangerous countries in the world for the press, according to CPJ research. More than 50 journalists have been killed or disappeared since 2007. Compounding the problem of violence is a climate of pervasive impunity. Crimes against the press are never solved, not only as a result of negligence and incompetence but also because of widespread corruption among law enforcement officials, particularly at the state level.    Breaking the cycle of impunities surrounding crimes against the press is Mexico's greatest challenge. Legal changes, although necessary, will be clearly insufficient without strong political will for President Enrique Pena Nieto's administration.    Amid the violence and volatility caused by organized crime and corruption in Central America, Honduras and Guatemala have also experienced an alarming increase in the numbers of attacks against the press. Nearly complete impunity for these crimes means the cases go mostly unresolved and the motives unexplained, a CPJ report published in September found.    Despite Brazil's image as an international political and economic leader and its position as the host of next year's summer Olympics, the country has become one of the most dangerous in the world for the press. According to CPJ research, at least 16 journalists have been killed in direct reprisal for their work since January 2011, while six others were murdered in unclear circumstances.    In the lead up to the 2016 summer Olympics, President Dilma Rousseff will have to grapple with many problems, including a sluggish economy, the unfolding corruption scandal within the state oil company, and the prospect of renewed protests, like those that erupted around the 2014 FIFA World Cup. Precisely at those times, Brazil needs a vibrant, independent press that can freely report on these matters and carry out its work without fear of reprisal.    In the next year, the world's fourth largest democracy will receive a flood of tourists and find itself under the spotlight for international media attention. Before that occurs, the Brazilian Government needs to go beyond rhetoric and make good on the promise to protect the press and combat impunity.    While security in Colombia has improved in recent years and the number of killed journalists have dramatically decreased in the last decade, impunity is entrenched and threats and violence against journalists continue. Problems, such as overloaded prosecutors and mishandling of evidence, have delayed criminal investigations for years.    Besides the issue of violence, the second most persistent problem facing the Latin American press is the series of judicial, legislative, and regulatory restrictions placed on the press by democratically elected governments that seek to control the flow of information and stifle the dissent. Showing disdain for the institutions of democracy, several governments are seeking to suppress dissent, limit critical voices, and censor the news that undermines their public positions. Describing critical journalists as the unelected opposition, these governments have become increasingly intolerant to media criticism.    Venezuela provides the most blatant example of intolerance toward views and different opinions. The Government of Venezuela, Nicolas Maduro, has employed an array of tactics to weaken the press, and few remaining critical media still standing in Venezuela, according to CPJ research.    Nearly all of Venezuela's strategies and tactics to rein in and isolate critical journalists have been emulated by sympathetic governments across the region, from Nicaragua to Ecuador. But nobody has a been better apprentice than Ecuadorian President Rafael Correa, whose policies have transformed the country into one of the hemisphere's most restrictive nations for the press.    Lastly, as I testify before Congress today, I must also mention the climate for press freedom in the United States has deteriorated in recent years. Decisions by the Department of Justice in seizing journalists' phone records and emails, the aggressive prosecutions of whistleblowers who leak classified information to the press, and the massive surveillance of communications send an unequivocal chilling message to journalists and their sources, particularly on issues of national security that are of vital information to the public.    At the same time, just as troubling, these actions in the United States set a terrible example for the rest of the world, especially where governments routinely justify the intervention in the media by citing national security.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Duncan. Thank you.    Mr. Paolillo, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Paolillo</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Paolillo. Thank you, Mr. Chairman.    My name is Claudio Paolillo. I am the chairman of the Freedom of the Press and Information Committee, Inter-American Press Association. On behalf of the Inter-American Press Association, I want to thank this subcommittee for this invitation to participate in this important hearing. We have already submitted to the subcommittee a written and detailed report with some recommendations.    Freedom of the press and of expression in the hemisphere underwent a marked deterioration in recent months due to a significant increase in direct and indirect censorship and physical attacks on journalists. Violence carried out by organized crime, drug traffic hit men, and police-style groups on the orders of several governments in the region left on balance, more than 20 journalists murdered during the past 12 months in Honduras, Paraguay, Mexico, El Salvador, Colombia, and Peru.    But while the murders of journalists is terrible news for press freedom in the region, let me focus on two types of censorship which are of main concern to IAPA. Firstly, censorship in the Cuban dictatorship. The Governments of the United States and Cuba began a new relationship on July 20. Of course, it is too early to make definitive evaluations, but the reopening of Embassies in Washington and Havana did not produce any improvement in the practice of journalism or people's access to free information.    Nobody in Cuba is authorized to establish an independent media external to the government, and the ones that exist are those belonging to the regime. Internet access is virtually impossible for ordinary citizens.    Now, recently, 15 independent journalists, bloggers, and activists for freedom were arrested. After the resumption of relations with the United States, practices of meetings, arrests, intimidations, harassment, and vandalism against openness and independent journalists persisted; three of them are in jail now.    The government of Raul Castro has asserted repression, using paramilitaries trying to avoid the traces of the regime to be recorded. In 2014, there were 9,000 arrests for short periods, which is the new repressive tactic of the Castro brothers. Since IAPA's point of view, the resumption of relations between the U.S. and Cuba will not be good news per se unless there is good news for the return of freedom to the Caribbean island.    The least we can expect after more than a half a century is a kind of give and take, something like a barter with the Cuban regime. The isolation policy applied during 15 years can be discussed, but the price of defending freedom was valid during this 15 years, and it is valid now.    Secondly, censorship in legal dictatorships. With varying degrees, there are now legal dictatorships in Venezuela, Nicaragua, Bolivia, and Ecuador. Argentina has followed similar paths, but in that country, there still remains some liberties that make it a unique case. This description of legal dictatorships may sound a bit strong, but we would try to explain it using the example of Ecuador.    Since January 2007, in Ecuador, President Rafael Correa imposes a system which keeps in his fist the control of the three branches. He has decided to perpetrate endlessly in office to silence the independent and critical press, Correa displaced an ongoing campaign against the media, journalists, and citizens who have different opinions from his.    But unlike Cuba, where there is in place a dictatorship that everyone recognizes as such, in Ecuador and the other countries mentioned, there are constitutions and laws based on which the freedoms of speech and press are attacked legally. In Ecuador is in force since June 2013 the communications act, the most perfect and effective gag law created in recent times in Latin America. This law is imposed against any critical comment by a team of 300 officials who are under the order of a censor appointed and directed by President Correa.    To give you an idea, the gag law already enabled the government to impose 37 types of sanctions against nongovernment media outlets: Five verbal warnings, seven fines, four orders of rectifications, four answers imposed by the government, four orders to apologize, seven written warnings, two suspensions of radio frequencies, and three forced answers in specific radio programs.    In Ecuador and the other countries mentioned, one can say that there are elected governments but not necessarily democratic governments and much less republican governments. Yes, there are elections, but there is no separation of powers. There is no independent judiciary. There is no respect for individual rights, and freedom of the press is constantly under attack. Therefore, we speak about legal dictatorships.    Paradoxically, as they are elected, it is more difficult to denounce them than the very Cuban dictatorship. Without a free press, as our Declaration of Chapultepec says, democracy doesn't exist, let alone free and legitimate elections. You cannot say that people choose when they do not know what are they going to choose.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Duncan. Thank you so much.    Mr. Perez, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Perez</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Perez. Mr. Chairman, members of the subcommittee, free speech and the free press are under attack in Ecuador. President Rafael Correa declared the independent press as his number one enemy within his first year in office. In the last 8 years, journalists, opinion leaders, and media owners, have been denigrated, harassed, and singled out by President Correa and public officials on government-controlled media and on the streets.    In 2012, El Universo, its opinion editor, and its three directors, myself included, were sentenced to pay $40 million in reparations to President Correa personally and to serve 3 years in prison for publishing an unflattering op-ed column about the President. This situation forced the publisher to seek asylum and the rest of us into exile. The Inter-American Commission for Human Rights issued a precautionary measure urging Ecuador's highest court to suspend the sentence on the case.    The international community's reaction and support were overwhelming. Leading media outlets, human rights organizations, academics, professional organizations, and international political figures, including President Jimmy Carter, expressed their outrage about the grotesque nature of this case.    In the end, President Correa granted us his personal pardon, and this newspaper was spared from shutting down. Until this day, the judicial precedent is still alive, and its chilling effect on the Ecuadorian society is palpable. Now we will look for justice beyond our borders. Our case against the state of Ecuador is pending at the Inter-American Commission for Human Rights.    Today, the Ecuadorian media faces a subtle yet more threatening scenario. Censorship of free speech and the free press has been sanctioned into law. President Correa's majority in Congress passed the communications law 2 years ago. In the eyes of this law, information is a public service and the media is a public utility, no different than your local power and light company. Therefore, it all has to be intensely regulated by the government.    A special agency was created to uphold the lost mandate that all information be verified, contrasted, timely, and contextualized. And to enforce this law, a superintendent was selected from a short list of three candidates nominated by President Correa himself.    Since then, this agency has obliged media outlets to rectify and apologize for publishing information inconvenient for the government. Furthermore, imposing confiscatory fines that start at 10 percent of revenues averaged in the last 3 months, these fines double each time the infraction recurs in a 6-month period. As an example, the first fine El Universo faces is approximately $350,000; the second fine would be $700,000; the third, $1.4 million; and so on.    This new law enables the government to silence the press by imposing progressive fines that could bankrupt any media outlet. This outrageous situation is unique in the region. No other country has a law that enables censorship of the printed press by the highest levels of government.    For 94 years, through four generations, El Universo has endured through all forms of hostile political power, yet we are certain that this is the free press' darkest hour in Ecuador. Freedom of expression in all its forms is a fundamental right essential to democracy. These United States and Ecuador have a long history of shared democratic values included on several human rights treaties which our nations are signatories of.    This is why we respectfully urge this House not to remain a silent witness to these attacks on the cherished, fundamental rights. Therefore, we recommend, first, that you state your concern about the current state of freedom of expression in Ecuador and condemn the policies and practices that seek to silence the free press; second, to initiate a direct dialogue on these crucial issues of freedom of expression with Ecuador's legislative branch; third, stand by the Inter-American Commission of Human Rights through this challenging time when it has been the target of attacks by the Ecuadorian Government; fourth, support and strengthen the Commission's Office of the Special Rapporteur for freedom of expression, which is the last line of defense for dissenting voices in the region; and, finally, place freedom of expression as a top priority on the United States' foreign policy agenda toward Ecuador and other countries facing the same challenges. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Duncan. Thank you.    And, Mr. Corchado, 5 minutes.</t>
   </si>
   <si>
-    <t>Corchado</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Corchado. Thank you, Mr. Chairman.    My name is Alfredo Corchado, and I am the Mexico bureau chief for the Dallas Morning News, based in Mexico City. On behalf of my colleagues in Mexico, I thank you for the opportunity to talk about such a critical issue, freedom of expression.    I would also like to commend Chairman Duncan, Ranking Member Sires, and members of the Committee on Foreign Affairs for this important hearing.    I live in, work in, call home a country where in recent months every 26 hours a reporter is attacked, most of them by either the government or criminal gangs. Too many journalists in my homeland of Mexico have paid the ultimate price. This afternoon, I hope to honor their memory.    Mexico, as many have mentioned, is one of the most dangerous places to be a journalist. Every day, I walk in the shadow of more than 120,000 people killed or disappeared in just over 8 years, among them dozens of Mexican journalists, colleagues who were more vulnerable and face a more dangerous and precarious situation than I do.    Drug traffickers and corrupt government officials bully reporters, harassing them if they are lucky or silencing them for good if they are not. Today, I speak to you in the memory of more than 50, or as many as 120, journalists who have either been killed or disappeared since Mexico's political transition began in 2000.    Today, there are regions in Mexico where reporters have elected to sensor themselves. In other words, see nothing, say nothing. These are known as regions of silence. And who can question the logic of my Mexican colleagues? The vast majority of those cases remain unsolved. Mexico's rule of law remains so, so weak. Institutions are virtually nonexistent. Crimes go unpunished.    As my Mexican colleague Javier Garza, who collaborates on a project called ``Journalists at Risk'' that documents attacks against the press, says, ``The most worrying aspect of this growing trend of violence is that Mexico is going backwards.'' This is a sad irony because, even with the advances in elections, government transparency, and media competition in the last 15 years, press freedom in Mexico is smaller, not bigger.    Mexico's inability to protect its journalists and defenders of freedom of expression against criminals is beyond shameful. It is both shocking and offensive to those who believe that journalism is a powerful tool to shine the light and to hold the powerful accountable.    Just as outrageous, my Mexican colleagues say, in Mexico they still kill you twice--once with the bullet, a blow to the head, or in a barrel of acid, and then they kill you again through character assassination, by spreading rumors about you, or even pressing criminal charges, as we have repeatedly seen with other journalists, especially those working in rural communities across Mexico, whether Veracruz, Oaxaca, Tamaulipas, Zacatecas, Michoacan, and so on.    Even in Mexico City, where we thought journalists like Carmen Aristegui were untouchable, it appears now that we were wrong. One of the most influential journalists in Mexico, Aristegui and her team uncovered, among other big stories, that the President and his wife had purchased a $7.1 million home from a government contractor--clearly a conflict of interest.    Aristegui and other journalists organized a Web site for whistleblowers. In any democratic country, such acts of courage in journalism would be awarded. In Mexico, Aristegui and her team were fired. Whatever, whoever is behind the firing, one thing is certain: Freedom of expression in Mexico is threatened even further.    I was born in Mexico and grew up in the United States, earning along the way a blue U.S. passport. Today, I am a binational citizen, holding both U.S. and Mexican citizenship. Yet I believe that being an American is the reason I report on stories that many of my colleagues don't live long enough to tell. Those are stories about the very same people who now hold pockets of the country hostage.    In July 2007, I got a call from a U.S. trusted source asking me, where are you? In Mexico City, in my neighborhood of La Condesa, I replied; why? We have information that the Zetas, a criminal paramilitary group, plan to kill an American journalist within 24 hours, and I think it's you. Get out.    I felt the ground under me collapse, my legs weaken, the life in me sucked away. I felt betrayed. I had wanted to believe that I was a son of Mexico, and now someone wanted to kill me. I was a mess.    I had once asked the same source about the likelihood that an American journalist would be targeted by a cartel. He said, I have good news and bad news. The good news: A Mexican cartel does not want to harm an American journalist. It would bring too much attention to their estimated $30 billion, $40 billion industry. The consequences could be too messy for them. The bad news: You don't look American, bro.    See, I tell you this story because I want to make something very clear. I am by no means more courageous or braver than any of my Mexican colleagues. I just want to believe that, if something happens to me, someone, somewhere, someone in this room, will seek justice. I won't be just another number, I won't be a faceless victim. Because, as bad as my situation may sound, the danger I face pales in comparison to what my Mexican colleagues confront. Simply put, I have more protection.    In conclusion, in Mexico, Latin America, and across the world, journalists will only be safe when the aggressors, whether criminal groups or public authorities, are brought to justice, when criminals pay a price.    Today in Mexico, attacks against journalists are rarely, if ever, solved. Mexico's National Human Rights Commission reported last year that nearly 90 percent of the attacks, murders, and disappearance of journalists remain unpunished. As we say in Mexico, ``La vida no vale nada.''    The Mexican Government has a method in place to protect journalists, one that the U.S. Government supports. The government also has a special prosecutor. But both the mechanism and the prosecutor have been largely ineffective.    The U.S. Government needs to do more to continue pressuring Mexico by raising concerns about attacks against freedom of expression. Otherwise, as the Washington Office on Latin America recently stated, freedom of expression will continue to be limited in Mexico unless Mexican authorities conduct full investigations and prosecutions of these crimes and implement effective mechanisms to protect human rights defenders and journalists at risk. We could not agree more.    Again, thank you very much.</t>
   </si>
   <si>
@@ -206,9 +179,6 @@
   </si>
   <si>
     <t>400344</t>
-  </si>
-  <si>
-    <t>Ileana Ros-Lehtinen</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Ros-Lehtinen. Thank you so much. Thank you, Chairman Duncan and Ranking Member Sires, for convening this important hearing on a topic that receives very little attention here in the U.S. You have excellent panelists. I congratulate you for selecting them.    Press freedom in Latin America is indeed under threat from regimes that seek to squash any dissenting voices. The Inter American Press Association noted at its 70th general assembly in October that press freedoms and freedom of expression have suffered a noticeable decline last year, in 2014.    Venezuela's law of 2004, la Ley de Responsabilidad Social en Radio y Television, is designed to muzzle broadcast media into submission, leaving journalists and editors with no choice but to self-censor their own content. The Venezuela model has been copied successfully, lamentably, in Argentina's 2009 law, Ley de Servicios de Comunicacion, and Ecuador's Ley Organica de Comunicacion. And, as we speak, the Bolivian Government threatens to enact a similar law.    In Ecuador, we also see journalists being attacked and sued by Correa, as all of you have pointed out, or media outlets fined for running articles that are deemed to be in opposition to the current regime in power.    In Nicaragua, Ortega continues to restrict press freedom by harassing and seeking to censor media outlets or making it difficult for them to operate in a free and open environment. Equally concerning are the physical attacks that journalists have suffered at the hands of police forces and armed thugs on the orders of officials seeking to curtail coverage of events that portray a negative image of their decadent regimes.    In my native homeland of Cuba, Freedom House ranks Cuba 193 out of 199 in their press freedom ratings. And despite the Obama administration's best efforts to present to us a change in Cuba, as the panelists have pointed out, the Castro regime still considers clandestine printing as a crime against the public order. And many of the digital media, as you have pointed out, are available for outside of Cuba, but normal, everyday Cubans have no access to it.    And, furthermore, any press outlet that tries to portray an independent analysis of the reality of what occurs in Cuba, such as the human rights violations and the continued attacks against Las Damas de Blanco, the Ladies in White, they are expelled from the country.    Yet, despite a decline in press freedom, nowhere does the battle for freedom rage stronger than in the confines of cyberspace. Latin America and all of its regimes are increasingly challenged by digital vehicles such as social media blogs, Internet news aggregators. It has become impossible to hide its atrocities from being documented in graphic, painstaking detail by social media, even if it is not available in those countries, angering their perpetrators, who have tried, in varying degrees of success, to ban these digital vehicles.    So this is a key moment for the future of a free press in Latin America. The United States must remain vigilant of proposals to regulate or sensor the Internet in our hemisphere. A free Internet is the key to fighting against the atrocities in Latin America and the last bastion of freedom against the scornful tyrannical regimes that plague our hemisphere today.    I want to ask Dr. Ponce about Venezuela.    December 6 is elections. Is it plausible for an election to be considered fair if opposition candidates can only spread their messages almost exclusively through the Internet?    One of the main concerns in Venezuela is the imposing size of state-owned media. Critical outlets like El Universal and Globovision, among many others, have been swallowed by the hegemonic state apparatus. And now we have the elections coming up; they no longer count on a vehicle to deliver their messages to the general public.    How do you analyze the upcoming elections and the viability of candidates without access to the state-owned media?</t>
@@ -745,11 +715,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -769,13 +737,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -797,11 +763,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -821,13 +785,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -849,11 +811,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -873,13 +833,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -901,11 +859,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -925,13 +881,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -953,11 +907,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -977,13 +929,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1005,11 +955,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1029,13 +977,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" t="s">
-        <v>32</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1057,11 +1003,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1081,13 +1025,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" t="s">
-        <v>35</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1109,11 +1051,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1133,13 +1073,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" t="s">
-        <v>38</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1161,11 +1099,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1185,13 +1121,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" t="s">
-        <v>41</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1213,11 +1147,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1237,13 +1169,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
         <v>35</v>
-      </c>
-      <c r="H21" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1265,11 +1195,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1289,13 +1217,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1317,11 +1243,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1341,13 +1265,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1369,11 +1291,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1393,13 +1313,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1421,11 +1339,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1445,13 +1361,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1473,11 +1387,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1497,13 +1409,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G31" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1525,11 +1435,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1549,13 +1457,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1575,13 +1481,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>26</v>
-      </c>
-      <c r="G34" t="s">
-        <v>32</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1601,13 +1505,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>26</v>
-      </c>
-      <c r="G35" t="s">
-        <v>35</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1627,13 +1529,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1653,13 +1553,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>26</v>
-      </c>
-      <c r="G37" t="s">
-        <v>41</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1679,13 +1577,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1707,11 +1603,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1731,13 +1625,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>63</v>
-      </c>
-      <c r="G40" t="s">
-        <v>64</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1757,13 +1649,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>26</v>
-      </c>
-      <c r="G41" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1783,13 +1673,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>63</v>
-      </c>
-      <c r="G42" t="s">
-        <v>64</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1811,11 +1699,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1835,13 +1721,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1861,13 +1745,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>26</v>
-      </c>
-      <c r="G45" t="s">
-        <v>41</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1887,13 +1769,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1913,13 +1793,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>26</v>
-      </c>
-      <c r="G47" t="s">
-        <v>38</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1939,13 +1817,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1965,13 +1841,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>26</v>
-      </c>
-      <c r="G49" t="s">
-        <v>35</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1991,13 +1865,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2017,13 +1889,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>26</v>
-      </c>
-      <c r="G51" t="s">
-        <v>35</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2043,13 +1913,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2069,13 +1937,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>26</v>
-      </c>
-      <c r="G53" t="s">
-        <v>32</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2097,11 +1963,9 @@
       <c r="F54" t="s">
         <v>11</v>
       </c>
-      <c r="G54" t="s">
-        <v>12</v>
-      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2121,13 +1985,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>26</v>
-      </c>
-      <c r="G55" t="s">
-        <v>41</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2149,11 +2011,9 @@
       <c r="F56" t="s">
         <v>11</v>
       </c>
-      <c r="G56" t="s">
-        <v>12</v>
-      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2173,13 +2033,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>26</v>
-      </c>
-      <c r="G57" t="s">
-        <v>38</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2201,11 +2059,9 @@
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="G58" t="s">
-        <v>12</v>
-      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2225,13 +2081,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>26</v>
-      </c>
-      <c r="G59" t="s">
-        <v>38</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2253,11 +2107,9 @@
       <c r="F60" t="s">
         <v>11</v>
       </c>
-      <c r="G60" t="s">
-        <v>12</v>
-      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2277,13 +2129,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>26</v>
-      </c>
-      <c r="G61" t="s">
-        <v>38</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2305,11 +2155,9 @@
       <c r="F62" t="s">
         <v>11</v>
       </c>
-      <c r="G62" t="s">
-        <v>12</v>
-      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2329,13 +2177,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>26</v>
-      </c>
-      <c r="G63" t="s">
-        <v>38</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2357,11 +2203,9 @@
       <c r="F64" t="s">
         <v>11</v>
       </c>
-      <c r="G64" t="s">
-        <v>12</v>
-      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2381,13 +2225,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>26</v>
-      </c>
-      <c r="G65" t="s">
-        <v>38</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2409,11 +2251,9 @@
       <c r="F66" t="s">
         <v>11</v>
       </c>
-      <c r="G66" t="s">
-        <v>12</v>
-      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2433,13 +2273,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>26</v>
-      </c>
-      <c r="G67" t="s">
-        <v>38</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2461,11 +2299,9 @@
       <c r="F68" t="s">
         <v>11</v>
       </c>
-      <c r="G68" t="s">
-        <v>12</v>
-      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2485,13 +2321,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>26</v>
-      </c>
-      <c r="G69" t="s">
-        <v>38</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2513,11 +2347,9 @@
       <c r="F70" t="s">
         <v>11</v>
       </c>
-      <c r="G70" t="s">
-        <v>12</v>
-      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2537,13 +2369,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>26</v>
-      </c>
-      <c r="G71" t="s">
-        <v>38</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2565,11 +2395,9 @@
       <c r="F72" t="s">
         <v>11</v>
       </c>
-      <c r="G72" t="s">
-        <v>12</v>
-      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2589,13 +2417,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>26</v>
-      </c>
-      <c r="G73" t="s">
-        <v>35</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2617,11 +2443,9 @@
       <c r="F74" t="s">
         <v>11</v>
       </c>
-      <c r="G74" t="s">
-        <v>12</v>
-      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2641,13 +2465,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>26</v>
-      </c>
-      <c r="G75" t="s">
-        <v>32</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2669,11 +2491,9 @@
       <c r="F76" t="s">
         <v>11</v>
       </c>
-      <c r="G76" t="s">
-        <v>12</v>
-      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2693,13 +2513,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>26</v>
-      </c>
-      <c r="G77" t="s">
-        <v>32</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2721,11 +2539,9 @@
       <c r="F78" t="s">
         <v>11</v>
       </c>
-      <c r="G78" t="s">
-        <v>12</v>
-      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2745,13 +2561,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>26</v>
-      </c>
-      <c r="G79" t="s">
-        <v>32</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2773,11 +2587,9 @@
       <c r="F80" t="s">
         <v>11</v>
       </c>
-      <c r="G80" t="s">
-        <v>12</v>
-      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2797,13 +2609,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>26</v>
-      </c>
-      <c r="G81" t="s">
-        <v>32</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2825,11 +2635,9 @@
       <c r="F82" t="s">
         <v>11</v>
       </c>
-      <c r="G82" t="s">
-        <v>12</v>
-      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2849,13 +2657,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>26</v>
-      </c>
-      <c r="G83" t="s">
-        <v>32</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2877,11 +2683,9 @@
       <c r="F84" t="s">
         <v>11</v>
       </c>
-      <c r="G84" t="s">
-        <v>12</v>
-      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2901,13 +2705,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>26</v>
-      </c>
-      <c r="G85" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2929,11 +2731,9 @@
       <c r="F86" t="s">
         <v>11</v>
       </c>
-      <c r="G86" t="s">
-        <v>12</v>
-      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg95696.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95696.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="117">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>412472</t>
   </si>
   <si>
+    <t>Duncan</t>
+  </si>
+  <si>
+    <t>Jeff</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Duncan. A quorum being present, the subcommittee will come to order.    I would now like to recognize myself for an opening statement.    In 1776, the Second Continental Congress of the thirteen United States of America declared: We hold these truths be self-evident, that all men are created equal, and they are endowed by their Creator with certain unalienable rights, that among these are life, liberty, and the pursuit of happiness.    In 1791, the United States of America adopted the Bill of Rights, which among other things, affirmed the American citizens' freedom of speech, the press, and the right of people to peacefully assemble, the ability to speak openly without censure or fear of reprisal as a hallmark of free peoples everywhere. And the freedom of press is critical to sustaining democracy and the rule of law and enabling people to remain free from state and in some cases, nonstate control or oppression.    Journalists provide needed accountability for governments by challenging conventional thinking; reporting on different and often opposing viewpoints; and offering people information that informs their understanding of the issues. Unfortunately, in our hemisphere, a trend of conditioning and even curtailing press freedoms in several countries is deeply disturbing.    From severe government repression and outright targeting of journalists by Cuba, Venezuela, and Ecuador to organized crime, corruption, and impunity in other countries in Latin America, journalists have very difficult jobs, often risking their very lives and their loved ones to bring information and the truth to their fellow citizens.    Although the purpose of this hearing is to highlight some of the more concerning trends of threats to press freedoms in the Americas, I do want to note that there are some bright spots in the region with Canada and most of the Caribbean having relatively open media environments in comparison to other countries in the region.    In recent years, several international press rights monitoring organizations have expressed growing concerns about the deterioration of press freedoms in Latin America. Groups, like Freedom House, Reporters Without Borders, the Committee to Protect Journalists, and the Inter-American Press Association, all report on threats to freedoms of the press in the Western Hemisphere. And we are fortunate to have key experts from some of these groups represented here today to testify about their work.    I also want to commend the efforts of the Organization of American States Special Rapporteur for Freedom of Expression, who has done some important work on threats to freedom of the press through highlighting progress and problems within specific countries in the Americas through the comprehensive annual reports. These reports are excellent tools for providing transparency and accountability to countries in the region.    In addition, I also want to congratulate the Special Rapporteur for his efforts to bring to public awareness the issue of government surveillance programs that have threatened journalists' rights of privacy and freedom of expression.    According to the Reporters Without Borders' 2015 World Press Freedom Index, only three countries in the Western Hemisphere managed to score in the top 20 of 180 countries documented: Canada, Jamaica, and Costa Rica. Notoriously, Mexico and Cuba were among the worst offenders in the Western Hemisphere listed in that report.    When it comes to violence against the media, Mexico exists as one of the most dangerous countries for media, with journalists often receiving extortion and kidnapping threats from government officials, criminal groups, and other transnational gangs. In fact, Mexico accounts for more than a third of all of the killing of media workers and journalists in the hemisphere since 2009.    In addition, Cuba ranks worst in the region, according to Freedom House, and among the 10 most censored countries in the world according to the Committee to Protect Journalists. Furthermore, Cuba and Venezuela have been singled out frequently and consistently for having repressive media environments and for often targeting peaceful protesters and political dissidents.    In these countries, independent journalists and bloggers are often subject to government sanction, harassment, and detention. Just last year, we saw Venezuelan security forces opening fire on journalists during student demonstrations that ultimately turned deadly. These conditions have led to more than 400 Venezuelan journalists living in exile today.    In addition to these countries, Ecuador, Honduras, and Peru all received their worst press freedom scores in over a decade from Freedom House. A controversial 2013 communications law in Ecuador has led to chilling environment, self-censorship, and intimidation for press organizations. Honduras passed a new secrecy law and has limited critical reporting of the government. Peru has seen an increase in threats against journalists and ongoing impunity and a lack of willingness to address past crimes against journalists.    More over, Brazil has seen at least 16 journalists killed in direct response for their work since President Rousseff took office in January 2011. In Nicaragua, complete state control of the media has occurred through a monopoly, with the single exception of one single independent television channel. Other concerns about general deterioration of press freedoms in Latin America include the governmental abuse of libel and defamation laws, a general lack of support for the protection of journalists, reporters, and media workers, and in some places an outright attempt to eliminate an independent media altogether.    So, in conclusion, threats to the press freedoms and the Americas are ongoing and increasing. Abraham Lincoln once stated that ``No man is good enough to govern another man without that other's consent.''. Today, in the Western Hemisphere, there are some people who are seeking to do just that: Control populations; prevent freedom of thought and expression; and eliminate avenues for questioning; state control by silencing the voice of those who are most able to speak truth to power.    Our witnesses today are uniquely positioned to share their research and personal experiences in various countries of oppression, and I look forward to considering how the U.S. can better engage in the region to more effectively partner with other countries to promote the freedom of press.    With that, I will turn to the ranking member, Mr. Sires, for an opening statement he may have.</t>
   </si>
   <si>
     <t>412186</t>
   </si>
   <si>
+    <t>Sires</t>
+  </si>
+  <si>
+    <t>Albio</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Sires. Thank you, Mr. Chairman.    Good afternoon, and thank you to our witnesses for being here today. And especially Alfredo Corchado and Nicolas Perez, who traveled a long way to be here. We certainly appreciate you being here.    Freedom of expression is a keystone that holds any democracy together. Being able to speak without censorship is a right that should never be stifled. Furthermore, it is the number one mechanism to hold people in government accountable for their actions. In recent years, many organizations dedicated to freedom of speech and advancing civil societies have been trying to bring attention to the deterioration of press freedom in Latin America.    Cuba has consistently been characterized as having one of the most repressive media environments in the world, with the Castro regime controlling all aspects of the print and electronic media. Venezuela and Ecuador have made deliberate attempts to eliminate their dissenters and inhibit free speech. They have harassed and fined the media; shut down their operations; and even physically attacked journalists who are trying to expose the state-sponsored crackdown against peaceful, political dissenters.    Ecuador's 2013 law forces media organizations to print government-mandated edits, and corrections have led to the country's wide censorship. This institutionalized tactic to censor the Ecuadorian population is unacceptable. In other countries, such as Mexico and Honduras, an increase in drug-related violence and worsening security situation have created a culture of impunity, allowing the violence against journalists and press institutions to go unpunished.    Mexico has unfortunately become one of the most dangerous places on Earth for journalists, with journalists regularly targeted for reporting organized crime or corrupt government officials. Mexico accounts for more than one-third of the killings of members of the media in Latin America in 2009. In Honduras, 8 million members have already lost their lives this year. Even in Colombia, journalists are under constant threat from paramilitary groups.    As a child in Cuba, I witnessed the deterioration of democracy as the Castro regime took over the islands and systemically destroyed all aspects of freedom of speech and expression. There is strong connection between countries' Democratic values and freedoms afforded to the press. Working to preserve freedom of speech and pushing back against those who seek to quiet their dissenters should be a top priority when engaging with our neighbors in the region.    I look forward to hearing from our panelists to hear their assessment of the hemisphere's state of affairs when it comes to the freedom of speech.</t>
   </si>
   <si>
@@ -67,6 +82,12 @@
     <t>412526</t>
   </si>
   <si>
+    <t>DeSantis</t>
+  </si>
+  <si>
+    <t>Ron</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. DeSantis. No, thanks.</t>
   </si>
   <si>
@@ -76,6 +97,12 @@
     <t>412595</t>
   </si>
   <si>
+    <t>Kelly</t>
+  </si>
+  <si>
+    <t>Robin</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Kelly. I want to thank the chair and ranking member and our witnesses for holding this important hearing on press freedom in Latin America.    We are truly fortunate to live in and be Representatives of a Nation that recognizes and respects free press. The basis of our Government is to be for and by the people. And in that spirit, the opinion of the people matters. In many ways, the press are guardians of the people's opinion here in America.    That is why I am concerned by reports that our neighbors in Mexico, Venezuela, Honduras, and Ecuador have experienced a deterioration of press freedom. Whether it be politically motivated or the result of criminal activity, this erosion of press freedom in these areas that are valued and respected by our Nation cannot continue.    I look forward to our thoughtful discussion here today about free speech and that threat in our hemisphere. It is critical to the progress and prosperity of our Nation. I want to thank you again.    I yield back.</t>
   </si>
   <si>
@@ -85,6 +112,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Ponce</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Ponce. Thank you very much.    Chairman Duncan, Ranking Member Sires, DeSantis, Kelly, distinguished members of the committee, it is an honor to testify before you on the state of the press freedom in Latin America. I ask that my full testimony be submitted to the record.    I will briefly summarize the work of Freedom House; the current landscape for press freedom in Latin America, which today faces a more severe and diverse set of challenges than at any point in the previous years. They rank--the intimidation, the downward trajectory in the region is terrible at this time, and we can summarize what is going on in the region with a simple word, ``impunity.''    The work of Freedom House has been extended in the whole region. Since mid-1941, Freedom House has been working for fundamental freedoms in the world and has been working the previous years in several countries in the region: Mexico, Ecuador, Venezuela, Nicaragua, Honduras. And in an annual Freedom of the Press Report, the situation in the region is more than sad. Only 43 percent of the region is free. The rest is not free or partially free.    Freedom House has been training also journalists in Mexico in digital security: 1,300 journalists trained in Mexico. We have been helping also the Mexican Government with the Federal Protection Mechanism for Journalists.    In Venezuela and in Ecuador, we have been helping several organizations that works with journalists or support journalists or train journalists.    We have assisted 120 requests for protection from at-risk journalists in Mexico, Brazil, Colombia, Honduras, Ecuador, Guatemala, Peru, and Haiti. This is a huge challenge right now in the region: Extortion, persecution, the use of the judicial system against the journalists. One of three countries in Latin America, 15 percent, are rated free only. The rest, just 2 percent of the population live in free media environment.    We see the same situation from Mexico to Argentina, each one of the countries. If we record each one of the countries, we see the situation in Mexico, in Honduras, in Guatemala. The situation is getting worse. And the problem is the allocation of resources to go against the journalists. We see lack of access to information; lack of resources for the independent journalists and the investigative journalists; persecution directly against journalists; impunity against the attacks against the journalists; lack of protection; the monopoly of the media ownership, and the use of the power of the state to buy directly or indirectly the media outlets in each one of the countries. Abuse for each one of the countries in the region.    In Argentina, since 2008, journalists and media owners have been demonized, persecuted, and threatened. And the relationship between the government and the critical press, it is really critical against all the media outlets. Total control of the use of the power of the state to buy media or to buy publicity in each one of the media and to persecute directly journalists.    Juan Pablo Suarez, editor of the online daily Ultima Hora, was charged with inciting collective violence and terrorizing the population. So it is the use of the judiciary ones and over to persecute each one of the journalists.    We can say that is the same situation in Colombia, a weak police justice system that doesn't work to protect the journalists so the journalists keep facing the same impunity and persecution.    In Cuba, the situation is getting worse. With the normalizations, the diplomatic situations have been improving in Cuba. But every Sunday, we can see the Ladies in White. Every Sunday, we see the persecution against the civil society. We see the persecution not only in Cuba. When the Cubans are trying to leave the country, they also have problems in Panama, El Salvador. They have persecution also by the regime in trying to infuse the long arm of the regime.    We see the persecution in every independent journalist in Cuba. All the organizations that try to bring information outside Cuba have been persecuted. Even bloggers have been persecuted in Cuba. Cubanet has been playing definitely a good role in Cuba, but it has been persecuted all the time.    In the case of the Ecuador, not only is it about journalists, it is about cartoonists, like Bonilla, persecuted by the government directly. The government simply persecuted also organizations for civil society like Fundamedios. Ecuador experienced the second largest decline in the world, the freedom of the press from 2008 to 2013. It is going downward in the last year; 180 cases of persecution in Ecuador, and recently, the hacking team against all the organizations in Ecuador.    Honduras is the most deadliest country for journalists.    Guatemala, 72 organizations reported 177 during this administration of--the current administration in Guatemala. The aggression against journalists, the persecution, killing against the journalists.    Mexico. Mexico has been going downward in terms of the protection of the journalists, and it is not free since 2011, according to Freedom House.    In Venezuela, 1,773 aggressions against journalists documented so far in just 10 years, from 2005 to 2015. And the government control of all the media in Venezuela and now persecution even the Web pages that operate in Venezuela. Seven journalists killed since 2005. There is no independent media in Venezuela.    It is the same situation in Mexico.    Nicaragua, government ownership of all the media in Nicaragua and the persecution of anyone who wants to simply express the right to go and ask independent election in Nicaragua, persecuted by the police, persecuted by the regime now. And we can see that this is a pattern around the region.</t>
   </si>
   <si>
@@ -97,24 +127,36 @@
     <t xml:space="preserve">    Mr. Duncan. Thank you.    Dr. Carlos Lauria, you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Lauria</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lauria. Thank you, Mr. Chairman.    I would like to commend Chairman Duncan and members of the House Subcommittee on the Western Hemisphere for holding this important hearing and for providing the Committee to Protect Journalists the opportunity to testify before you. CPJ is an independent, nonprofit organization dedicated to promote freedom of press worldwide and defend the rights of journalists. It is an honor to speak to you today.    What I have experienced in more than a decade at CPJ is that while Latin American media are certainly freer and more vibrant now than during previous decades, journalists in the region continue to face serious challenges on different fronts. The regional press continues to hold governments accountable, exposing corruption and human rights abuses in the face of ongoing threats by organized crime and officials in their attempt to thwart freedom of expression.    Despite the strong tradition of independent, investigative, and critical media in many countries of the region, journalists are increasingly vulnerable to both violence and government harassment. More than 30 years of democratization in the region, transnational criminal networks have extended their sway and spread a wave of unprecedented violence across Latin America. Scores of journalists have been killed and disappeared. Media outlets have been bombed and forced into silence. The consequences are devastating: Many regional democracies have deteriorated due to political instability and weakened institutions.    Violence tied to drug trafficking has made Mexico one of the dangerous countries in the world for the press, according to CPJ research. More than 50 journalists have been killed or disappeared since 2007. Compounding the problem of violence is a climate of pervasive impunity. Crimes against the press are never solved, not only as a result of negligence and incompetence but also because of widespread corruption among law enforcement officials, particularly at the state level.    Breaking the cycle of impunities surrounding crimes against the press is Mexico's greatest challenge. Legal changes, although necessary, will be clearly insufficient without strong political will for President Enrique Pena Nieto's administration.    Amid the violence and volatility caused by organized crime and corruption in Central America, Honduras and Guatemala have also experienced an alarming increase in the numbers of attacks against the press. Nearly complete impunity for these crimes means the cases go mostly unresolved and the motives unexplained, a CPJ report published in September found.    Despite Brazil's image as an international political and economic leader and its position as the host of next year's summer Olympics, the country has become one of the most dangerous in the world for the press. According to CPJ research, at least 16 journalists have been killed in direct reprisal for their work since January 2011, while six others were murdered in unclear circumstances.    In the lead up to the 2016 summer Olympics, President Dilma Rousseff will have to grapple with many problems, including a sluggish economy, the unfolding corruption scandal within the state oil company, and the prospect of renewed protests, like those that erupted around the 2014 FIFA World Cup. Precisely at those times, Brazil needs a vibrant, independent press that can freely report on these matters and carry out its work without fear of reprisal.    In the next year, the world's fourth largest democracy will receive a flood of tourists and find itself under the spotlight for international media attention. Before that occurs, the Brazilian Government needs to go beyond rhetoric and make good on the promise to protect the press and combat impunity.    While security in Colombia has improved in recent years and the number of killed journalists have dramatically decreased in the last decade, impunity is entrenched and threats and violence against journalists continue. Problems, such as overloaded prosecutors and mishandling of evidence, have delayed criminal investigations for years.    Besides the issue of violence, the second most persistent problem facing the Latin American press is the series of judicial, legislative, and regulatory restrictions placed on the press by democratically elected governments that seek to control the flow of information and stifle the dissent. Showing disdain for the institutions of democracy, several governments are seeking to suppress dissent, limit critical voices, and censor the news that undermines their public positions. Describing critical journalists as the unelected opposition, these governments have become increasingly intolerant to media criticism.    Venezuela provides the most blatant example of intolerance toward views and different opinions. The Government of Venezuela, Nicolas Maduro, has employed an array of tactics to weaken the press, and few remaining critical media still standing in Venezuela, according to CPJ research.    Nearly all of Venezuela's strategies and tactics to rein in and isolate critical journalists have been emulated by sympathetic governments across the region, from Nicaragua to Ecuador. But nobody has a been better apprentice than Ecuadorian President Rafael Correa, whose policies have transformed the country into one of the hemisphere's most restrictive nations for the press.    Lastly, as I testify before Congress today, I must also mention the climate for press freedom in the United States has deteriorated in recent years. Decisions by the Department of Justice in seizing journalists' phone records and emails, the aggressive prosecutions of whistleblowers who leak classified information to the press, and the massive surveillance of communications send an unequivocal chilling message to journalists and their sources, particularly on issues of national security that are of vital information to the public.    At the same time, just as troubling, these actions in the United States set a terrible example for the rest of the world, especially where governments routinely justify the intervention in the media by citing national security.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Duncan. Thank you.    Mr. Paolillo, you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Paolillo</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Paolillo. Thank you, Mr. Chairman.    My name is Claudio Paolillo. I am the chairman of the Freedom of the Press and Information Committee, Inter-American Press Association. On behalf of the Inter-American Press Association, I want to thank this subcommittee for this invitation to participate in this important hearing. We have already submitted to the subcommittee a written and detailed report with some recommendations.    Freedom of the press and of expression in the hemisphere underwent a marked deterioration in recent months due to a significant increase in direct and indirect censorship and physical attacks on journalists. Violence carried out by organized crime, drug traffic hit men, and police-style groups on the orders of several governments in the region left on balance, more than 20 journalists murdered during the past 12 months in Honduras, Paraguay, Mexico, El Salvador, Colombia, and Peru.    But while the murders of journalists is terrible news for press freedom in the region, let me focus on two types of censorship which are of main concern to IAPA. Firstly, censorship in the Cuban dictatorship. The Governments of the United States and Cuba began a new relationship on July 20. Of course, it is too early to make definitive evaluations, but the reopening of Embassies in Washington and Havana did not produce any improvement in the practice of journalism or people's access to free information.    Nobody in Cuba is authorized to establish an independent media external to the government, and the ones that exist are those belonging to the regime. Internet access is virtually impossible for ordinary citizens.    Now, recently, 15 independent journalists, bloggers, and activists for freedom were arrested. After the resumption of relations with the United States, practices of meetings, arrests, intimidations, harassment, and vandalism against openness and independent journalists persisted; three of them are in jail now.    The government of Raul Castro has asserted repression, using paramilitaries trying to avoid the traces of the regime to be recorded. In 2014, there were 9,000 arrests for short periods, which is the new repressive tactic of the Castro brothers. Since IAPA's point of view, the resumption of relations between the U.S. and Cuba will not be good news per se unless there is good news for the return of freedom to the Caribbean island.    The least we can expect after more than a half a century is a kind of give and take, something like a barter with the Cuban regime. The isolation policy applied during 15 years can be discussed, but the price of defending freedom was valid during this 15 years, and it is valid now.    Secondly, censorship in legal dictatorships. With varying degrees, there are now legal dictatorships in Venezuela, Nicaragua, Bolivia, and Ecuador. Argentina has followed similar paths, but in that country, there still remains some liberties that make it a unique case. This description of legal dictatorships may sound a bit strong, but we would try to explain it using the example of Ecuador.    Since January 2007, in Ecuador, President Rafael Correa imposes a system which keeps in his fist the control of the three branches. He has decided to perpetrate endlessly in office to silence the independent and critical press, Correa displaced an ongoing campaign against the media, journalists, and citizens who have different opinions from his.    But unlike Cuba, where there is in place a dictatorship that everyone recognizes as such, in Ecuador and the other countries mentioned, there are constitutions and laws based on which the freedoms of speech and press are attacked legally. In Ecuador is in force since June 2013 the communications act, the most perfect and effective gag law created in recent times in Latin America. This law is imposed against any critical comment by a team of 300 officials who are under the order of a censor appointed and directed by President Correa.    To give you an idea, the gag law already enabled the government to impose 37 types of sanctions against nongovernment media outlets: Five verbal warnings, seven fines, four orders of rectifications, four answers imposed by the government, four orders to apologize, seven written warnings, two suspensions of radio frequencies, and three forced answers in specific radio programs.    In Ecuador and the other countries mentioned, one can say that there are elected governments but not necessarily democratic governments and much less republican governments. Yes, there are elections, but there is no separation of powers. There is no independent judiciary. There is no respect for individual rights, and freedom of the press is constantly under attack. Therefore, we speak about legal dictatorships.    Paradoxically, as they are elected, it is more difficult to denounce them than the very Cuban dictatorship. Without a free press, as our Declaration of Chapultepec says, democracy doesn't exist, let alone free and legitimate elections. You cannot say that people choose when they do not know what are they going to choose.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Duncan. Thank you so much.    Mr. Perez, you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Perez</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Perez. Mr. Chairman, members of the subcommittee, free speech and the free press are under attack in Ecuador. President Rafael Correa declared the independent press as his number one enemy within his first year in office. In the last 8 years, journalists, opinion leaders, and media owners, have been denigrated, harassed, and singled out by President Correa and public officials on government-controlled media and on the streets.    In 2012, El Universo, its opinion editor, and its three directors, myself included, were sentenced to pay $40 million in reparations to President Correa personally and to serve 3 years in prison for publishing an unflattering op-ed column about the President. This situation forced the publisher to seek asylum and the rest of us into exile. The Inter-American Commission for Human Rights issued a precautionary measure urging Ecuador's highest court to suspend the sentence on the case.    The international community's reaction and support were overwhelming. Leading media outlets, human rights organizations, academics, professional organizations, and international political figures, including President Jimmy Carter, expressed their outrage about the grotesque nature of this case.    In the end, President Correa granted us his personal pardon, and this newspaper was spared from shutting down. Until this day, the judicial precedent is still alive, and its chilling effect on the Ecuadorian society is palpable. Now we will look for justice beyond our borders. Our case against the state of Ecuador is pending at the Inter-American Commission for Human Rights.    Today, the Ecuadorian media faces a subtle yet more threatening scenario. Censorship of free speech and the free press has been sanctioned into law. President Correa's majority in Congress passed the communications law 2 years ago. In the eyes of this law, information is a public service and the media is a public utility, no different than your local power and light company. Therefore, it all has to be intensely regulated by the government.    A special agency was created to uphold the lost mandate that all information be verified, contrasted, timely, and contextualized. And to enforce this law, a superintendent was selected from a short list of three candidates nominated by President Correa himself.    Since then, this agency has obliged media outlets to rectify and apologize for publishing information inconvenient for the government. Furthermore, imposing confiscatory fines that start at 10 percent of revenues averaged in the last 3 months, these fines double each time the infraction recurs in a 6-month period. As an example, the first fine El Universo faces is approximately $350,000; the second fine would be $700,000; the third, $1.4 million; and so on.    This new law enables the government to silence the press by imposing progressive fines that could bankrupt any media outlet. This outrageous situation is unique in the region. No other country has a law that enables censorship of the printed press by the highest levels of government.    For 94 years, through four generations, El Universo has endured through all forms of hostile political power, yet we are certain that this is the free press' darkest hour in Ecuador. Freedom of expression in all its forms is a fundamental right essential to democracy. These United States and Ecuador have a long history of shared democratic values included on several human rights treaties which our nations are signatories of.    This is why we respectfully urge this House not to remain a silent witness to these attacks on the cherished, fundamental rights. Therefore, we recommend, first, that you state your concern about the current state of freedom of expression in Ecuador and condemn the policies and practices that seek to silence the free press; second, to initiate a direct dialogue on these crucial issues of freedom of expression with Ecuador's legislative branch; third, stand by the Inter-American Commission of Human Rights through this challenging time when it has been the target of attacks by the Ecuadorian Government; fourth, support and strengthen the Commission's Office of the Special Rapporteur for freedom of expression, which is the last line of defense for dissenting voices in the region; and, finally, place freedom of expression as a top priority on the United States' foreign policy agenda toward Ecuador and other countries facing the same challenges. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Duncan. Thank you.    And, Mr. Corchado, 5 minutes.</t>
   </si>
   <si>
+    <t>Corchado</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Corchado. Thank you, Mr. Chairman.    My name is Alfredo Corchado, and I am the Mexico bureau chief for the Dallas Morning News, based in Mexico City. On behalf of my colleagues in Mexico, I thank you for the opportunity to talk about such a critical issue, freedom of expression.    I would also like to commend Chairman Duncan, Ranking Member Sires, and members of the Committee on Foreign Affairs for this important hearing.    I live in, work in, call home a country where in recent months every 26 hours a reporter is attacked, most of them by either the government or criminal gangs. Too many journalists in my homeland of Mexico have paid the ultimate price. This afternoon, I hope to honor their memory.    Mexico, as many have mentioned, is one of the most dangerous places to be a journalist. Every day, I walk in the shadow of more than 120,000 people killed or disappeared in just over 8 years, among them dozens of Mexican journalists, colleagues who were more vulnerable and face a more dangerous and precarious situation than I do.    Drug traffickers and corrupt government officials bully reporters, harassing them if they are lucky or silencing them for good if they are not. Today, I speak to you in the memory of more than 50, or as many as 120, journalists who have either been killed or disappeared since Mexico's political transition began in 2000.    Today, there are regions in Mexico where reporters have elected to sensor themselves. In other words, see nothing, say nothing. These are known as regions of silence. And who can question the logic of my Mexican colleagues? The vast majority of those cases remain unsolved. Mexico's rule of law remains so, so weak. Institutions are virtually nonexistent. Crimes go unpunished.    As my Mexican colleague Javier Garza, who collaborates on a project called ``Journalists at Risk'' that documents attacks against the press, says, ``The most worrying aspect of this growing trend of violence is that Mexico is going backwards.'' This is a sad irony because, even with the advances in elections, government transparency, and media competition in the last 15 years, press freedom in Mexico is smaller, not bigger.    Mexico's inability to protect its journalists and defenders of freedom of expression against criminals is beyond shameful. It is both shocking and offensive to those who believe that journalism is a powerful tool to shine the light and to hold the powerful accountable.    Just as outrageous, my Mexican colleagues say, in Mexico they still kill you twice--once with the bullet, a blow to the head, or in a barrel of acid, and then they kill you again through character assassination, by spreading rumors about you, or even pressing criminal charges, as we have repeatedly seen with other journalists, especially those working in rural communities across Mexico, whether Veracruz, Oaxaca, Tamaulipas, Zacatecas, Michoacan, and so on.    Even in Mexico City, where we thought journalists like Carmen Aristegui were untouchable, it appears now that we were wrong. One of the most influential journalists in Mexico, Aristegui and her team uncovered, among other big stories, that the President and his wife had purchased a $7.1 million home from a government contractor--clearly a conflict of interest.    Aristegui and other journalists organized a Web site for whistleblowers. In any democratic country, such acts of courage in journalism would be awarded. In Mexico, Aristegui and her team were fired. Whatever, whoever is behind the firing, one thing is certain: Freedom of expression in Mexico is threatened even further.    I was born in Mexico and grew up in the United States, earning along the way a blue U.S. passport. Today, I am a binational citizen, holding both U.S. and Mexican citizenship. Yet I believe that being an American is the reason I report on stories that many of my colleagues don't live long enough to tell. Those are stories about the very same people who now hold pockets of the country hostage.    In July 2007, I got a call from a U.S. trusted source asking me, where are you? In Mexico City, in my neighborhood of La Condesa, I replied; why? We have information that the Zetas, a criminal paramilitary group, plan to kill an American journalist within 24 hours, and I think it's you. Get out.    I felt the ground under me collapse, my legs weaken, the life in me sucked away. I felt betrayed. I had wanted to believe that I was a son of Mexico, and now someone wanted to kill me. I was a mess.    I had once asked the same source about the likelihood that an American journalist would be targeted by a cartel. He said, I have good news and bad news. The good news: A Mexican cartel does not want to harm an American journalist. It would bring too much attention to their estimated $30 billion, $40 billion industry. The consequences could be too messy for them. The bad news: You don't look American, bro.    See, I tell you this story because I want to make something very clear. I am by no means more courageous or braver than any of my Mexican colleagues. I just want to believe that, if something happens to me, someone, somewhere, someone in this room, will seek justice. I won't be just another number, I won't be a faceless victim. Because, as bad as my situation may sound, the danger I face pales in comparison to what my Mexican colleagues confront. Simply put, I have more protection.    In conclusion, in Mexico, Latin America, and across the world, journalists will only be safe when the aggressors, whether criminal groups or public authorities, are brought to justice, when criminals pay a price.    Today in Mexico, attacks against journalists are rarely, if ever, solved. Mexico's National Human Rights Commission reported last year that nearly 90 percent of the attacks, murders, and disappearance of journalists remain unpunished. As we say in Mexico, ``La vida no vale nada.''    The Mexican Government has a method in place to protect journalists, one that the U.S. Government supports. The government also has a special prosecutor. But both the mechanism and the prosecutor have been largely ineffective.    The U.S. Government needs to do more to continue pressuring Mexico by raising concerns about attacks against freedom of expression. Otherwise, as the Washington Office on Latin America recently stated, freedom of expression will continue to be limited in Mexico unless Mexican authorities conduct full investigations and prosecutions of these crimes and implement effective mechanisms to protect human rights defenders and journalists at risk. We could not agree more.    Again, thank you very much.</t>
   </si>
   <si>
@@ -179,6 +221,12 @@
   </si>
   <si>
     <t>400344</t>
+  </si>
+  <si>
+    <t>Ros-Lehtinen</t>
+  </si>
+  <si>
+    <t>Ileana</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Ros-Lehtinen. Thank you so much. Thank you, Chairman Duncan and Ranking Member Sires, for convening this important hearing on a topic that receives very little attention here in the U.S. You have excellent panelists. I congratulate you for selecting them.    Press freedom in Latin America is indeed under threat from regimes that seek to squash any dissenting voices. The Inter American Press Association noted at its 70th general assembly in October that press freedoms and freedom of expression have suffered a noticeable decline last year, in 2014.    Venezuela's law of 2004, la Ley de Responsabilidad Social en Radio y Television, is designed to muzzle broadcast media into submission, leaving journalists and editors with no choice but to self-censor their own content. The Venezuela model has been copied successfully, lamentably, in Argentina's 2009 law, Ley de Servicios de Comunicacion, and Ecuador's Ley Organica de Comunicacion. And, as we speak, the Bolivian Government threatens to enact a similar law.    In Ecuador, we also see journalists being attacked and sued by Correa, as all of you have pointed out, or media outlets fined for running articles that are deemed to be in opposition to the current regime in power.    In Nicaragua, Ortega continues to restrict press freedom by harassing and seeking to censor media outlets or making it difficult for them to operate in a free and open environment. Equally concerning are the physical attacks that journalists have suffered at the hands of police forces and armed thugs on the orders of officials seeking to curtail coverage of events that portray a negative image of their decadent regimes.    In my native homeland of Cuba, Freedom House ranks Cuba 193 out of 199 in their press freedom ratings. And despite the Obama administration's best efforts to present to us a change in Cuba, as the panelists have pointed out, the Castro regime still considers clandestine printing as a crime against the public order. And many of the digital media, as you have pointed out, are available for outside of Cuba, but normal, everyday Cubans have no access to it.    And, furthermore, any press outlet that tries to portray an independent analysis of the reality of what occurs in Cuba, such as the human rights violations and the continued attacks against Las Damas de Blanco, the Ladies in White, they are expelled from the country.    Yet, despite a decline in press freedom, nowhere does the battle for freedom rage stronger than in the confines of cyberspace. Latin America and all of its regimes are increasingly challenged by digital vehicles such as social media blogs, Internet news aggregators. It has become impossible to hide its atrocities from being documented in graphic, painstaking detail by social media, even if it is not available in those countries, angering their perpetrators, who have tried, in varying degrees of success, to ban these digital vehicles.    So this is a key moment for the future of a free press in Latin America. The United States must remain vigilant of proposals to regulate or sensor the Internet in our hemisphere. A free Internet is the key to fighting against the atrocities in Latin America and the last bastion of freedom against the scornful tyrannical regimes that plague our hemisphere today.    I want to ask Dr. Ponce about Venezuela.    December 6 is elections. Is it plausible for an election to be considered fair if opposition candidates can only spread their messages almost exclusively through the Internet?    One of the main concerns in Venezuela is the imposing size of state-owned media. Critical outlets like El Universal and Globovision, among many others, have been swallowed by the hegemonic state apparatus. And now we have the elections coming up; they no longer count on a vehicle to deliver their messages to the general public.    How do you analyze the upcoming elections and the viability of candidates without access to the state-owned media?</t>
@@ -665,7 +713,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H86"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,7 +721,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -695,2045 +743,2399 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
       <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
       <c r="H7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G17" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G27" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G31" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
       <c r="H33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G34" t="s">
+        <v>37</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G35" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G36" t="s">
+        <v>17</v>
+      </c>
       <c r="H36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>17</v>
+      </c>
       <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
       <c r="H39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>54</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="G40" t="s">
+        <v>69</v>
+      </c>
       <c r="H40" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G41" t="s">
+        <v>32</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>54</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="G42" t="s">
+        <v>69</v>
+      </c>
       <c r="H42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
       <c r="H43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
       <c r="H44" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>22</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
+        <v>17</v>
+      </c>
       <c r="H46" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>22</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G47" t="s">
+        <v>43</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G48" t="s">
+        <v>17</v>
+      </c>
       <c r="H48" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G49" t="s">
+        <v>40</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G50" t="s">
+        <v>17</v>
+      </c>
       <c r="H50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>22</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G51" t="s">
+        <v>40</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G52" t="s">
+        <v>17</v>
+      </c>
       <c r="H52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I52" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>22</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G53" t="s">
+        <v>37</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>13</v>
+      </c>
       <c r="H54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I54" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>22</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>13</v>
+      </c>
       <c r="H56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I56" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>22</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G57" t="s">
+        <v>43</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>13</v>
+      </c>
       <c r="H58" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I58" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>22</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G59" t="s">
+        <v>43</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>13</v>
+      </c>
       <c r="H60" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I60" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>22</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G61" t="s">
+        <v>43</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>13</v>
+      </c>
       <c r="H62" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I62" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>22</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G63" t="s">
+        <v>43</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>13</v>
+      </c>
       <c r="H64" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I64" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>22</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G65" t="s">
+        <v>43</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>13</v>
+      </c>
       <c r="H66" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I66" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>22</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G67" t="s">
+        <v>43</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>13</v>
+      </c>
       <c r="H68" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I68" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>22</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G69" t="s">
+        <v>43</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>13</v>
+      </c>
       <c r="H70" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I70" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>22</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G71" t="s">
+        <v>43</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>13</v>
+      </c>
       <c r="H72" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I72" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>22</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G73" t="s">
+        <v>40</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G74" t="s">
+        <v>13</v>
+      </c>
       <c r="H74" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I74" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>22</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G75" t="s">
+        <v>37</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G76" t="s">
+        <v>13</v>
+      </c>
       <c r="H76" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I76" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>22</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G78" t="s">
+        <v>13</v>
+      </c>
       <c r="H78" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I78" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>22</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G79" t="s">
+        <v>37</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G80" t="s">
+        <v>13</v>
+      </c>
       <c r="H80" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I80" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>22</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G81" t="s">
+        <v>37</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G82" t="s">
+        <v>13</v>
+      </c>
       <c r="H82" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I82" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>22</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G83" t="s">
+        <v>37</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G84" t="s">
+        <v>13</v>
+      </c>
       <c r="H84" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I84" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>22</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G85" t="s">
+        <v>32</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>11</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G86" t="s">
+        <v>13</v>
+      </c>
       <c r="H86" t="s">
-        <v>100</v>
+        <v>14</v>
+      </c>
+      <c r="I86" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg95696.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95696.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="121">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412472</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Duncan</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>412186</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Sires</t>
   </si>
   <si>
@@ -80,6 +89,9 @@
   </si>
   <si>
     <t>412526</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>DeSantis</t>
@@ -713,7 +725,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I86"/>
+  <dimension ref="A1:J86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -721,7 +733,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -746,2396 +758,2580 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" t="s">
-        <v>40</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" t="s">
-        <v>32</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" t="s">
-        <v>32</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>36</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
-      </c>
-      <c r="G27" t="s">
-        <v>32</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>36</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" t="s">
-        <v>32</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>36</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
-      </c>
-      <c r="G31" t="s">
-        <v>32</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>36</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G33" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H33" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>31</v>
-      </c>
-      <c r="G34" t="s">
-        <v>37</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>41</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
-      </c>
-      <c r="G35" t="s">
-        <v>40</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>44</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G36" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H36" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I36" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
-      </c>
-      <c r="G37" t="s">
-        <v>46</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>50</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G38" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H38" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I38" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I39" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G40" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="H40" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I40" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
-      </c>
-      <c r="G41" t="s">
-        <v>32</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>36</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G42" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="H42" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I42" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I43" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J43" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G44" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H44" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I44" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
-      </c>
-      <c r="G45" t="s">
-        <v>46</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>50</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G46" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H46" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I46" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J46" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
-      </c>
-      <c r="G47" t="s">
-        <v>43</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G48" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H48" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I48" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
-      </c>
-      <c r="G49" t="s">
-        <v>40</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>44</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G50" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H50" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I50" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
-      </c>
-      <c r="G51" t="s">
-        <v>40</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>44</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G52" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H52" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I52" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J52" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
-      </c>
-      <c r="G53" t="s">
-        <v>37</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>41</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I54" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J54" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>31</v>
-      </c>
-      <c r="G55" t="s">
-        <v>46</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>50</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I56" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J56" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
-      </c>
-      <c r="G57" t="s">
-        <v>43</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I58" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J58" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
-      </c>
-      <c r="G59" t="s">
-        <v>43</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I60" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J60" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
-      </c>
-      <c r="G61" t="s">
-        <v>43</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I62" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J62" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
-      </c>
-      <c r="G63" t="s">
-        <v>43</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I64" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J64" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
-      </c>
-      <c r="G65" t="s">
-        <v>43</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I66" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J66" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>31</v>
-      </c>
-      <c r="G67" t="s">
-        <v>43</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I68" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J68" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
-      </c>
-      <c r="G69" t="s">
-        <v>43</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I70" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J70" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
-      </c>
-      <c r="G71" t="s">
-        <v>43</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I72" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J72" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>31</v>
-      </c>
-      <c r="G73" t="s">
-        <v>40</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>44</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I74" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J74" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
-      </c>
-      <c r="G75" t="s">
-        <v>37</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>41</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G76" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I76" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J76" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
-      </c>
-      <c r="G77" t="s">
-        <v>37</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>41</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G78" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I78" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J78" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>31</v>
-      </c>
-      <c r="G79" t="s">
-        <v>37</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>41</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G80" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I80" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J80" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>31</v>
-      </c>
-      <c r="G81" t="s">
-        <v>37</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>41</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G82" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I82" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J82" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>31</v>
-      </c>
-      <c r="G83" t="s">
-        <v>37</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>41</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H84" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I84" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J84" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>31</v>
-      </c>
-      <c r="G85" t="s">
-        <v>32</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>36</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H86" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I86" t="s">
-        <v>116</v>
+        <v>16</v>
+      </c>
+      <c r="J86" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
